--- a/studies/WOC2019/Images/Experiments/CPU/Latencies/Experiment5-7.xlsx
+++ b/studies/WOC2019/Images/Experiments/CPU/Latencies/Experiment5-7.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="4">
   <si>
     <t>No HPA</t>
   </si>
@@ -28,6 +28,9 @@
   </si>
   <si>
     <t>HPA+colocated</t>
+  </si>
+  <si>
+    <t>HPA+VPA</t>
   </si>
 </sst>
 </file>
@@ -237,20 +240,654 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="nl-BE"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>No HPA</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$11:$A$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>220</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>230</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>250</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$11:$B$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>74.698999999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>48.972999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>66.543999999999997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>51.155999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>421</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>779</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1061</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1328</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1739</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2132</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2190</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2102</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2092</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2101</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2109</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2099</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2114</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2166</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>HPA</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$11:$A$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>220</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>230</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>250</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$11:$C$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>119</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>271</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>486</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>766</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1004</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1121</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1477</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1504</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1627</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>HPA+VPA</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$11:$A$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>220</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>230</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>250</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$11:$D$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>149</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>281</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>423</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>746</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>828</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1154</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:marker val="1"/>
+        <c:axId val="78836864"/>
+        <c:axId val="78838400"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="78836864"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>requests/s</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="0" sourceLinked="0"/>
+        <c:majorTickMark val="cross"/>
+        <c:tickLblPos val="low"/>
+        <c:crossAx val="78838400"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:tickLblSkip val="1"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="78838400"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1050"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="nl-BE"/>
+                  <a:t>latency</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="nl-BE" baseline="0"/>
+                  <a:t> (ms)</a:t>
+                </a:r>
+                <a:endParaRPr lang="nl-BE"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="3.0555555555555555E-2"/>
+              <c:y val="0.33274871733998079"/>
+            </c:manualLayout>
+          </c:layout>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="78836864"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="150"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>60960</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>365760</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -264,6 +901,36 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>556260</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>251460</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -535,10 +1202,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q5" sqref="Q5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -638,6 +1305,367 @@
         <v>877.19</v>
       </c>
     </row>
+    <row r="10" spans="1:4">
+      <c r="B10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" t="s">
+        <v>1</v>
+      </c>
+      <c r="D10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>74.698999999999998</v>
+      </c>
+      <c r="C11">
+        <v>62</v>
+      </c>
+      <c r="D11">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12">
+        <v>20</v>
+      </c>
+      <c r="B12">
+        <v>48.972999999999999</v>
+      </c>
+      <c r="C12">
+        <v>60</v>
+      </c>
+      <c r="D12">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13">
+        <v>30</v>
+      </c>
+      <c r="B13">
+        <v>66.543999999999997</v>
+      </c>
+      <c r="C13">
+        <v>65</v>
+      </c>
+      <c r="D13">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14">
+        <v>40</v>
+      </c>
+      <c r="B14">
+        <v>51.155999999999999</v>
+      </c>
+      <c r="C14">
+        <v>60</v>
+      </c>
+      <c r="D14">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15">
+        <v>50</v>
+      </c>
+      <c r="B15">
+        <v>50</v>
+      </c>
+      <c r="C15">
+        <v>66</v>
+      </c>
+      <c r="D15">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16">
+        <v>60</v>
+      </c>
+      <c r="B16">
+        <v>38</v>
+      </c>
+      <c r="C16">
+        <v>49</v>
+      </c>
+      <c r="D16">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17">
+        <v>70</v>
+      </c>
+      <c r="B17">
+        <v>421</v>
+      </c>
+      <c r="C17">
+        <v>49</v>
+      </c>
+      <c r="D17">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18">
+        <v>80</v>
+      </c>
+      <c r="B18">
+        <v>779</v>
+      </c>
+      <c r="C18">
+        <v>45</v>
+      </c>
+      <c r="D18">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19">
+        <v>90</v>
+      </c>
+      <c r="B19">
+        <v>1061</v>
+      </c>
+      <c r="C19">
+        <v>61</v>
+      </c>
+      <c r="D19">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20">
+        <v>100</v>
+      </c>
+      <c r="B20">
+        <v>1328</v>
+      </c>
+      <c r="C20">
+        <v>42</v>
+      </c>
+      <c r="D20">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21">
+        <v>110</v>
+      </c>
+      <c r="B21">
+        <v>1739</v>
+      </c>
+      <c r="C21">
+        <v>50</v>
+      </c>
+      <c r="D21">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22">
+        <v>120</v>
+      </c>
+      <c r="B22">
+        <v>2015</v>
+      </c>
+      <c r="C22">
+        <v>77</v>
+      </c>
+      <c r="D22">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23">
+        <v>130</v>
+      </c>
+      <c r="B23">
+        <v>2132</v>
+      </c>
+      <c r="C23">
+        <v>119</v>
+      </c>
+      <c r="D23">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24">
+        <v>140</v>
+      </c>
+      <c r="B24">
+        <v>2190</v>
+      </c>
+      <c r="C24">
+        <v>271</v>
+      </c>
+      <c r="D24">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25">
+        <v>150</v>
+      </c>
+      <c r="B25">
+        <v>2102</v>
+      </c>
+      <c r="C25">
+        <v>486</v>
+      </c>
+      <c r="D25">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26">
+        <v>160</v>
+      </c>
+      <c r="B26">
+        <v>2092</v>
+      </c>
+      <c r="C26">
+        <v>766</v>
+      </c>
+      <c r="D26">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27">
+        <v>170</v>
+      </c>
+      <c r="B27">
+        <v>2101</v>
+      </c>
+      <c r="C27">
+        <v>1004</v>
+      </c>
+      <c r="D27">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28">
+        <v>180</v>
+      </c>
+      <c r="B28">
+        <v>2109</v>
+      </c>
+      <c r="C28">
+        <v>1121</v>
+      </c>
+      <c r="D28">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29">
+        <v>190</v>
+      </c>
+      <c r="B29">
+        <v>2099</v>
+      </c>
+      <c r="C29">
+        <v>1477</v>
+      </c>
+      <c r="D29">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30">
+        <v>200</v>
+      </c>
+      <c r="B30">
+        <v>2114</v>
+      </c>
+      <c r="C30">
+        <v>1504</v>
+      </c>
+      <c r="D30">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31">
+        <v>210</v>
+      </c>
+      <c r="B31">
+        <v>2166</v>
+      </c>
+      <c r="C31">
+        <v>1627</v>
+      </c>
+      <c r="D31">
+        <v>1154</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32">
+        <v>220</v>
+      </c>
+      <c r="B32">
+        <v>2119</v>
+      </c>
+      <c r="C32">
+        <v>1532</v>
+      </c>
+      <c r="D32">
+        <v>1189</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33">
+        <v>230</v>
+      </c>
+      <c r="B33">
+        <v>2159</v>
+      </c>
+      <c r="C33">
+        <v>1467</v>
+      </c>
+      <c r="D33">
+        <v>1338</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34">
+        <v>240</v>
+      </c>
+      <c r="B34">
+        <v>2121</v>
+      </c>
+      <c r="C34">
+        <v>1397</v>
+      </c>
+      <c r="D34">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35">
+        <v>250</v>
+      </c>
+      <c r="B35">
+        <v>2106</v>
+      </c>
+      <c r="C35">
+        <v>1552</v>
+      </c>
+      <c r="D35">
+        <v>1075</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/studies/WOC2019/Images/Experiments/CPU/Latencies/Experiment5-7.xlsx
+++ b/studies/WOC2019/Images/Experiments/CPU/Latencies/Experiment5-7.xlsx
@@ -196,24 +196,24 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="104706816"/>
-        <c:axId val="104708352"/>
+        <c:axId val="67213184"/>
+        <c:axId val="67214720"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="104706816"/>
+        <c:axId val="67213184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="104708352"/>
+        <c:crossAx val="67214720"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="104708352"/>
+        <c:axId val="67214720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -221,7 +221,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="104706816"/>
+        <c:crossAx val="67213184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -234,7 +234,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -351,10 +351,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$11:$B$31</c:f>
+              <c:f>Sheet1!$B$11:$B$27</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="21"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>74.698999999999998</c:v>
                 </c:pt>
@@ -405,18 +405,6 @@
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>2101</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>2109</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>2099</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>2114</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>2166</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -525,10 +513,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$11:$C$31</c:f>
+              <c:f>Sheet1!$C$11:$C$27</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="21"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>62</c:v>
                 </c:pt>
@@ -579,18 +567,6 @@
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>1004</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1121</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1477</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>1504</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>1627</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -699,10 +675,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$11:$D$31</c:f>
+              <c:f>Sheet1!$D$11:$D$27</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="21"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>39</c:v>
                 </c:pt>
@@ -753,29 +729,17 @@
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>281</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>423</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>746</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>828</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>1154</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="78836864"/>
-        <c:axId val="78838400"/>
+        <c:axId val="68194304"/>
+        <c:axId val="70523136"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="78836864"/>
+        <c:axId val="68194304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -807,7 +771,7 @@
         <c:numFmt formatCode="0" sourceLinked="0"/>
         <c:majorTickMark val="cross"/>
         <c:tickLblPos val="low"/>
-        <c:crossAx val="78838400"/>
+        <c:crossAx val="70523136"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -815,10 +779,10 @@
         <c:tickLblSkip val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="78838400"/>
+        <c:axId val="70523136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="1050"/>
+          <c:max val="150"/>
         </c:scaling>
         <c:axPos val="l"/>
         <c:majorGridlines/>
@@ -847,17 +811,18 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="3.0555555555555555E-2"/>
-              <c:y val="0.33274871733998079"/>
+              <c:x val="3.0555555555555558E-2"/>
+              <c:y val="0.33274871733998096"/>
             </c:manualLayout>
           </c:layout>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="78836864"/>
+        <c:crossAx val="68194304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
-        <c:majorUnit val="150"/>
+        <c:majorUnit val="25"/>
+        <c:minorUnit val="10"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -868,7 +833,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1194,7 +1159,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1205,7 +1170,7 @@
   <dimension ref="A1:D35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q5" sqref="Q5"/>
+      <selection activeCell="P11" sqref="P11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>

--- a/studies/WOC2019/Images/Experiments/CPU/Latencies/Experiment5-7.xlsx
+++ b/studies/WOC2019/Images/Experiments/CPU/Latencies/Experiment5-7.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eddy\Documents\DistriNetProjects\Decomads\k8-scalar\studies\WOC2019\Images\Experiments\CPU\Latencies\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="7944"/>
   </bookViews>
@@ -10,8 +15,8 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="125725"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -36,8 +41,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -87,12 +92,24 @@
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="nl-BE"/>
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -126,6 +143,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -160,6 +178,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -194,34 +213,50 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
-        <c:marker val="1"/>
-        <c:axId val="67213184"/>
-        <c:axId val="67214720"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="272645344"/>
+        <c:axId val="1598774080"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="67213184"/>
+        <c:axId val="272645344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="67214720"/>
+        <c:crossAx val="1598774080"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="67214720"/>
+        <c:axId val="1598774080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="67213184"/>
+        <c:crossAx val="272645344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -229,8 +264,11 @@
     <c:legend>
       <c:legendPos val="r"/>
       <c:layout/>
+      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -242,12 +280,24 @@
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="nl-BE"/>
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -262,9 +312,6 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
           <c:cat>
             <c:numRef>
               <c:f>Sheet1!$A$11:$A$35</c:f>
@@ -409,6 +456,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -424,9 +472,6 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
           <c:cat>
             <c:numRef>
               <c:f>Sheet1!$A$11:$A$35</c:f>
@@ -571,6 +616,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -586,9 +632,6 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
           <c:cat>
             <c:numRef>
               <c:f>Sheet1!$A$11:$A$35</c:f>
@@ -733,16 +776,27 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="68194304"/>
-        <c:axId val="70523136"/>
+        <c:smooth val="0"/>
+        <c:axId val="1598771904"/>
+        <c:axId val="1598769184"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="68194304"/>
+        <c:axId val="1598771904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
           <c:tx>
@@ -761,6 +815,7 @@
             </c:rich>
           </c:tx>
           <c:layout/>
+          <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -770,20 +825,22 @@
         </c:title>
         <c:numFmt formatCode="0" sourceLinked="0"/>
         <c:majorTickMark val="cross"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="low"/>
-        <c:crossAx val="70523136"/>
+        <c:crossAx val="1598769184"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:tickLblSkip val="1"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="70523136"/>
+        <c:axId val="1598769184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="150"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:title>
@@ -795,6 +852,14 @@
                 <a:pPr>
                   <a:defRPr/>
                 </a:pPr>
+                <a:r>
+                  <a:rPr lang="nl-BE"/>
+                  <a:t>95th percentile</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="nl-BE" baseline="0"/>
+                  <a:t> </a:t>
+                </a:r>
                 <a:r>
                   <a:rPr lang="nl-BE"/>
                   <a:t>latency</a:t>
@@ -815,12 +880,15 @@
               <c:y val="0.33274871733998096"/>
             </c:manualLayout>
           </c:layout>
+          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="68194304"/>
+        <c:crossAx val="1598771904"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
+        <c:crossBetween val="between"/>
         <c:majorUnit val="25"/>
         <c:minorUnit val="10"/>
       </c:valAx>
@@ -828,8 +896,11 @@
     <c:legend>
       <c:legendPos val="r"/>
       <c:layout/>
+      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -873,16 +944,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>556260</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>121920</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>441960</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>251460</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>45720</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>137160</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1159,23 +1230,23 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P11" sqref="P11"/>
+      <selection activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -1186,7 +1257,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>50</v>
       </c>
@@ -1200,7 +1271,7 @@
         <v>45.957000000000001</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>100</v>
       </c>
@@ -1214,7 +1285,7 @@
         <v>48.414000000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>150</v>
       </c>
@@ -1228,7 +1299,7 @@
         <v>48.868000000000002</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>200</v>
       </c>
@@ -1242,7 +1313,7 @@
         <v>79.581999999999994</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>250</v>
       </c>
@@ -1256,7 +1327,7 @@
         <v>505.613</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>300</v>
       </c>
@@ -1270,7 +1341,7 @@
         <v>877.19</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>0</v>
       </c>
@@ -1281,7 +1352,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1295,7 +1366,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>20</v>
       </c>
@@ -1309,7 +1380,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>30</v>
       </c>
@@ -1323,7 +1394,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>40</v>
       </c>
@@ -1337,7 +1408,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>50</v>
       </c>
@@ -1351,7 +1422,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>60</v>
       </c>
@@ -1365,7 +1436,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>70</v>
       </c>
@@ -1379,7 +1450,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>80</v>
       </c>
@@ -1393,7 +1464,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>90</v>
       </c>
@@ -1407,7 +1478,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>100</v>
       </c>
@@ -1421,7 +1492,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>110</v>
       </c>
@@ -1435,7 +1506,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>120</v>
       </c>
@@ -1449,7 +1520,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>130</v>
       </c>
@@ -1463,7 +1534,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>140</v>
       </c>
@@ -1477,7 +1548,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>150</v>
       </c>
@@ -1491,7 +1562,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>160</v>
       </c>
@@ -1505,7 +1576,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>170</v>
       </c>
@@ -1519,7 +1590,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>180</v>
       </c>
@@ -1533,7 +1604,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>190</v>
       </c>
@@ -1547,7 +1618,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>200</v>
       </c>
@@ -1561,7 +1632,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>210</v>
       </c>
@@ -1575,7 +1646,7 @@
         <v>1154</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>220</v>
       </c>
@@ -1589,7 +1660,7 @@
         <v>1189</v>
       </c>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>230</v>
       </c>
@@ -1603,7 +1674,7 @@
         <v>1338</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>240</v>
       </c>
@@ -1617,7 +1688,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>250</v>
       </c>

--- a/studies/WOC2019/Images/Experiments/CPU/Latencies/Experiment5-7.xlsx
+++ b/studies/WOC2019/Images/Experiments/CPU/Latencies/Experiment5-7.xlsx
@@ -224,11 +224,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="272645344"/>
-        <c:axId val="1598774080"/>
+        <c:axId val="148083504"/>
+        <c:axId val="148084048"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="272645344"/>
+        <c:axId val="148083504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -237,7 +237,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1598774080"/>
+        <c:crossAx val="148084048"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -245,7 +245,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1598774080"/>
+        <c:axId val="148084048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -256,7 +256,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="272645344"/>
+        <c:crossAx val="148083504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -788,11 +788,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1598771904"/>
-        <c:axId val="1598769184"/>
+        <c:axId val="122891072"/>
+        <c:axId val="122892704"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1598771904"/>
+        <c:axId val="122891072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -827,7 +827,7 @@
         <c:majorTickMark val="cross"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="low"/>
-        <c:crossAx val="1598769184"/>
+        <c:crossAx val="122892704"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -835,7 +835,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1598769184"/>
+        <c:axId val="122892704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="150"/>
@@ -876,8 +876,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="3.0555555555555558E-2"/>
-              <c:y val="0.33274871733998096"/>
+              <c:x val="3.3333333333333333E-2"/>
+              <c:y val="0.15268171566493888"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -886,9 +886,9 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1598771904"/>
+        <c:crossAx val="122891072"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
+        <c:crossBetween val="midCat"/>
         <c:majorUnit val="25"/>
         <c:minorUnit val="10"/>
       </c:valAx>
